--- a/data/trans_dic/IP21-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP21-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,37 +864,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 8,46</t>
+          <t>1,51; 8,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 8,13</t>
+          <t>1,44; 7,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,75</t>
+          <t>0,0; 6,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,68</t>
+          <t>0,0; 14,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 5,34</t>
+          <t>0,65; 5,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 6,53</t>
+          <t>0,73; 6,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 8,23</t>
+          <t>0,96; 9,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,22 +904,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,57</t>
+          <t>1,43; 5,57</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 5,64</t>
+          <t>1,18; 5,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,93</t>
+          <t>0,53; 5,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,56</t>
+          <t>0,4; 6,92</t>
         </is>
       </c>
     </row>
@@ -1004,57 +1004,57 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,8</t>
+          <t>3,69; 6,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,14</t>
+          <t>3,1; 6,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,61</t>
+          <t>1,86; 4,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,6</t>
+          <t>0,8; 2,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,83; 5,92</t>
+          <t>2,75; 5,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 6,6</t>
+          <t>3,48; 6,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,96</t>
+          <t>1,57; 3,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,3</t>
+          <t>0,58; 2,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,64; 5,87</t>
+          <t>3,58; 5,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,6; 5,93</t>
+          <t>3,65; 5,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,76</t>
+          <t>2,02; 3,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,15</t>
+          <t>1,31; 6,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 8,22</t>
+          <t>2,31; 7,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,3; 5,15</t>
+          <t>1,04; 5,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,04</t>
+          <t>0,32; 3,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 6,74</t>
+          <t>2,0; 6,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 5,57</t>
+          <t>0,98; 5,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 7,01</t>
+          <t>2,27; 7,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,24</t>
+          <t>0,94; 5,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,21; 5,58</t>
+          <t>2,22; 5,57</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,7</t>
+          <t>2,25; 5,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,18</t>
+          <t>2,12; 5,19</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,36</t>
+          <t>0,9; 3,28</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 5,98</t>
+          <t>3,45; 6,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,24; 5,72</t>
+          <t>3,23; 5,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,02</t>
+          <t>1,86; 3,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,65</t>
+          <t>0,95; 2,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,14</t>
+          <t>2,7; 5,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,97; 5,41</t>
+          <t>3,03; 5,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,24</t>
+          <t>2,06; 4,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,3</t>
+          <t>0,84; 2,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,07</t>
+          <t>3,4; 5,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,45; 5,14</t>
+          <t>3,48; 5,21</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,67</t>
+          <t>2,32; 3,82</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,22</t>
+          <t>1,04; 2,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP21-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP21-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,29%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3,19%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,81%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,65; 5,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,0; 5,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,92; 8,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,5; 8,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,44; 8,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,0; 12,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>1,42; 5,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>1,41; 5,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 5,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,0; 6,87</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,35%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 8,63</t>
+          <t>2,73; 5,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 7,54</t>
+          <t>3,37; 6,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,49</t>
+          <t>1,69; 3,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,61</t>
+          <t>0,57; 2,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 5,41</t>
+          <t>3,52; 6,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 6,05</t>
+          <t>3,0; 6,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 9,7</t>
+          <t>1,86; 4,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>0,75; 2,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 5,57</t>
+          <t>3,64; 5,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 5,6</t>
+          <t>3,58; 5,88</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,38</t>
+          <t>2,05; 3,75</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 6,92</t>
+          <t>0,85; 2,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,91%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,69; 6,96</t>
+          <t>1,81; 6,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 6,27</t>
+          <t>0,96; 5,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,48</t>
+          <t>2,22; 7,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,67</t>
+          <t>0,87; 5,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,91</t>
+          <t>1,29; 6,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,48; 6,72</t>
+          <t>2,65; 8,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 3,99</t>
+          <t>1,28; 4,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,27</t>
+          <t>0,32; 3,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 5,84</t>
+          <t>2,18; 5,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,65; 5,88</t>
+          <t>2,16; 5,75</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,75</t>
+          <t>2,2; 5,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,11</t>
+          <t>0,94; 3,55</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>2,78%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>4,17%</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>2,45%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>3,59%</t>
-        </is>
-      </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,52%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 6,23</t>
+          <t>2,72; 5,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 7,94</t>
+          <t>2,9; 5,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 5,07</t>
+          <t>2,16; 4,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,51</t>
+          <t>0,79; 2,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,0; 6,89</t>
+          <t>3,51; 6,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 5,55</t>
+          <t>3,42; 6,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 7,26</t>
+          <t>1,93; 4,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 5,32</t>
+          <t>0,98; 2,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,22; 5,57</t>
+          <t>3,41; 5,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,25; 5,89</t>
+          <t>3,43; 5,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,19</t>
+          <t>2,22; 3,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 3,28</t>
+          <t>1,04; 2,18</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>4,59%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,43%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,78%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,62%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>3,73%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4,03%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>3,02%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,41%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>4,17%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>4,24%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>2,9%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>1,52%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>3,45; 6,0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>3,23; 5,85</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,86; 3,87</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 2,63</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>2,7; 5,03</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>3,03; 5,44</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>2,06; 4,16</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 2,36</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>3,4; 5,06</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>3,48; 5,21</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>2,32; 3,82</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>1,04; 2,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
